--- a/Excel/rapeActivity.强X活动.xlsx
+++ b/Excel/rapeActivity.强X活动.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D851831A-D022-45C7-A9C7-E8EAD4BB26C8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE08FCE-6152-43E4-9001-CBEA3D28997A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{3CB4D347-7352-4BFA-AED7-A54D3B1C81BB}">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{3CB4D347-7352-4BFA-AED7-A54D3B1C81BB}">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>sheet名</t>
   </si>
@@ -186,6 +186,78 @@
   </si>
   <si>
     <t>持续时间-分钟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动点击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoShow.repeat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoShow.showTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启后多少秒后自动弹出</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动弹出间隔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首冲奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoShow.repeatTimes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动弹出次数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>openTime.trigger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时抢购</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件触发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空商人-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +474,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -418,6 +490,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" quotePrefix="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -799,24 +874,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86DCF07-78E8-4251-BB22-2735A19F40C5}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="21.125" customWidth="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
+    <col min="9" max="10" width="22.875" customWidth="1"/>
+    <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="12" max="12" width="15.875" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="14.125" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -824,34 +903,49 @@
         <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -865,7 +959,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -880,13 +974,28 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -894,32 +1003,194 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>32</v>
       </c>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>101</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>300</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>102</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>101</v>
+      </c>
+      <c r="G5" s="3">
+        <v>120</v>
+      </c>
+      <c r="H5" s="3">
+        <v>600</v>
+      </c>
+      <c r="I5" s="3">
+        <v>40</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
+        <v>3</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>103</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>102</v>
+      </c>
+      <c r="G6" s="3">
+        <v>60</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
+        <v>5</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>104</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>102</v>
+      </c>
+      <c r="G7" s="3">
+        <v>60</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
+        <v>5</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>105</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
+        <v>8</v>
+      </c>
+      <c r="P8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
